--- a/Analysis/H2O Vapor Summary.xlsx
+++ b/Analysis/H2O Vapor Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Table 1</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>WRL 2 Thickness (Å)</t>
+  </si>
+  <si>
+    <t>Gradient Thickness</t>
   </si>
   <si>
     <t>Nafion</t>
@@ -537,8 +540,8 @@
     <numFmt numFmtId="59" formatCode="0.00000"/>
     <numFmt numFmtId="60" formatCode="0.0#########E+00"/>
     <numFmt numFmtId="61" formatCode="0.0####E+00"/>
-    <numFmt numFmtId="62" formatCode="0.0###########E+00"/>
-    <numFmt numFmtId="63" formatCode="0.0########E+00"/>
+    <numFmt numFmtId="62" formatCode="0.0##########E+00"/>
+    <numFmt numFmtId="63" formatCode="0.0###########E+00"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1994,7 +1997,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11">
-        <v>3.73193</v>
+        <v>3.12719</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
@@ -2017,7 +2020,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="17">
         <f>SUM(I9:I10,I12:I16,I18:I22,I24:I29,I31:I36,I38:I43,I45:I50,I52:I57,I59:I64,I66:I72)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
@@ -2061,7 +2064,7 @@
       <c r="G6" s="16"/>
       <c r="H6" s="19">
         <f>(H5-H4)*H3+H4*LN(H5)</f>
-        <v>2640.500246122890</v>
+        <v>2239.340135946660</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
@@ -2247,8 +2250,8 @@
       <c r="I13" s="27">
         <v>1</v>
       </c>
-      <c r="J13" s="33">
-        <v>3.143e-07</v>
+      <c r="J13" s="35">
+        <v>3.559e-08</v>
       </c>
       <c r="K13" s="17">
         <v>0</v>
@@ -2283,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="17">
-        <v>0.9979</v>
+        <v>1.006</v>
       </c>
       <c r="K14" s="17">
         <v>0.9</v>
@@ -2401,7 +2404,7 @@
       <c r="C19" s="27">
         <v>1</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="36">
         <v>6.952e-09</v>
       </c>
       <c r="E19" s="17">
@@ -2417,8 +2420,8 @@
       <c r="I19" s="27">
         <v>1</v>
       </c>
-      <c r="J19" s="36">
-        <v>4.44e-07</v>
+      <c r="J19" s="33">
+        <v>2.599e-07</v>
       </c>
       <c r="K19" s="17">
         <v>0</v>
@@ -2453,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="17">
-        <v>0.9611</v>
+        <v>0.9663</v>
       </c>
       <c r="K20" s="17">
         <v>0.9</v>
@@ -2563,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="17">
-        <v>35.88</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="K24" s="17">
         <v>30</v>
@@ -2754,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="17">
-        <v>5.537</v>
+        <v>6.332</v>
       </c>
       <c r="K31" s="17">
         <v>0</v>
@@ -2870,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="17">
-        <v>2.059</v>
+        <v>1.983</v>
       </c>
       <c r="K35" s="17">
         <v>0.7</v>
@@ -2905,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="17">
-        <v>94.5</v>
+        <v>98.87</v>
       </c>
       <c r="K36" s="17">
         <v>25</v>
@@ -2961,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="17">
-        <v>8.452</v>
+        <v>8.016</v>
       </c>
       <c r="K38" s="17">
         <v>0</v>
@@ -2996,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="17">
-        <v>1.629</v>
+        <v>1.637</v>
       </c>
       <c r="K39" s="17">
         <v>0.9419999999999999</v>
@@ -3085,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="17">
-        <v>8.715</v>
+        <v>8.69</v>
       </c>
       <c r="K42" s="17">
         <v>8.239000000000001</v>
@@ -3120,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="17">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="K43" s="17">
         <v>98</v>
@@ -3176,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="17">
-        <v>0.03675</v>
+        <v>0.02953</v>
       </c>
       <c r="K45" s="17">
         <v>0</v>
@@ -3292,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="17">
-        <v>6.457</v>
+        <v>6.401</v>
       </c>
       <c r="K49" s="17">
         <v>5.349</v>
@@ -3327,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="17">
-        <v>49.31</v>
+        <v>49.72</v>
       </c>
       <c r="K50" s="17">
         <v>30</v>
@@ -3383,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="17">
-        <v>17.38</v>
+        <v>4.444</v>
       </c>
       <c r="K52" s="17">
         <v>4</v>
@@ -3414,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="17">
-        <v>8.179</v>
+        <v>10.53</v>
       </c>
       <c r="K53" s="17">
         <v>4</v>
@@ -3445,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="17">
-        <v>26.37</v>
+        <v>11.68</v>
       </c>
       <c r="K54" s="17">
         <v>4</v>
@@ -3476,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="17">
-        <v>6.557</v>
+        <v>24.64</v>
       </c>
       <c r="K55" s="17">
         <v>4</v>
@@ -3504,11 +3507,21 @@
         <v>7</v>
       </c>
       <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
+      <c r="H56" t="s" s="28">
+        <v>40</v>
+      </c>
+      <c r="I56" s="27">
+        <v>1</v>
+      </c>
+      <c r="J56" s="17">
+        <v>7.615</v>
+      </c>
+      <c r="K56" s="17">
+        <v>5</v>
+      </c>
+      <c r="L56" s="17">
+        <v>350</v>
+      </c>
       <c r="M56" s="16"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
@@ -3541,7 +3554,7 @@
         <v>5</v>
       </c>
       <c r="B58" t="s" s="29">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -3549,7 +3562,7 @@
       <c r="F58" s="16"/>
       <c r="G58" s="30"/>
       <c r="H58" t="s" s="31">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
@@ -3582,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="17">
-        <v>12.6</v>
+        <v>11.93</v>
       </c>
       <c r="K59" s="17">
         <v>0</v>
@@ -3698,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="17">
-        <v>3.228</v>
+        <v>3.197</v>
       </c>
       <c r="K63" s="17">
         <v>2.705</v>
@@ -3733,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="17">
-        <v>266</v>
+        <v>264.9</v>
       </c>
       <c r="K64" s="17">
         <v>200</v>
@@ -3748,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s" s="29">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -3756,7 +3769,7 @@
       <c r="F65" s="16"/>
       <c r="G65" s="30"/>
       <c r="H65" t="s" s="31">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
@@ -3931,7 +3944,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="s" s="22">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C72" s="27">
         <v>0</v>
@@ -3943,7 +3956,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" t="s" s="24">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I72" s="27">
         <v>0</v>

--- a/Analysis/H2O Vapor Summary.xlsx
+++ b/Analysis/H2O Vapor Summary.xlsx
@@ -203,11 +203,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.00000"/>
     <numFmt numFmtId="60" formatCode="0.000E+00"/>
-    <numFmt numFmtId="61" formatCode="0.000"/>
+    <numFmt numFmtId="61" formatCode="0.0####E+00"/>
+    <numFmt numFmtId="62" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -373,7 +374,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -455,7 +456,13 @@
     <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="62" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1834,8 +1841,12 @@
       <c r="D9" s="26">
         <v>8.041737454157751e-08</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1e-05</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
@@ -1864,27 +1875,31 @@
       <c r="C10" s="25">
         <v>1</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="29">
         <v>1.00229301363113</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1.1</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="27"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="27"/>
+      <c r="P10" s="29"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
@@ -1900,8 +1915,12 @@
       <c r="D11" s="26">
         <v>3.39908737718167e-07</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>1e-05</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="13"/>
@@ -1923,41 +1942,45 @@
       <c r="Y11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="28"/>
+      <c r="A12" s="30"/>
       <c r="B12" t="s" s="24">
         <v>17</v>
       </c>
       <c r="C12" s="25">
         <v>1</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="29">
         <v>0.960063611415516</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="27">
+        <v>1.1</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="27"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="27"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="27"/>
+      <c r="V12" s="29"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="17"/>
-      <c r="B13" t="s" s="29">
+      <c r="B13" t="s" s="31">
         <v>18</v>
       </c>
       <c r="C13" s="14"/>
@@ -1965,19 +1988,19 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="30"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
-      <c r="T13" s="30"/>
+      <c r="T13" s="32"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
@@ -1992,27 +2015,31 @@
       <c r="C14" s="25">
         <v>1</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="29">
         <v>49.1055848053613</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="27">
+        <v>10</v>
+      </c>
+      <c r="F14" s="27">
+        <v>100</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="27"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="27"/>
+      <c r="P14" s="29"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="27"/>
+      <c r="V14" s="29"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
@@ -2025,7 +2052,7 @@
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="29">
         <v>0</v>
       </c>
       <c r="E15" s="14"/>
@@ -2033,19 +2060,19 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="27"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="27"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="27"/>
+      <c r="V15" s="29"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
@@ -2058,7 +2085,7 @@
       <c r="C16" s="25">
         <v>0</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="29">
         <v>0</v>
       </c>
       <c r="E16" s="14"/>
@@ -2066,19 +2093,19 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="27"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="27"/>
+      <c r="P16" s="29"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="27"/>
+      <c r="V16" s="29"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
@@ -2091,7 +2118,7 @@
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="29">
         <v>0</v>
       </c>
       <c r="E17" s="14"/>
@@ -2099,26 +2126,26 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="27"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="27"/>
+      <c r="P17" s="29"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="13"/>
-      <c r="V17" s="27"/>
+      <c r="V17" s="29"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" t="s" s="29">
+      <c r="A18" s="30"/>
+      <c r="B18" t="s" s="31">
         <v>23</v>
       </c>
       <c r="C18" s="14"/>
@@ -2126,19 +2153,19 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="30"/>
+      <c r="N18" s="32"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
-      <c r="T18" s="30"/>
+      <c r="T18" s="32"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
@@ -2153,27 +2180,31 @@
       <c r="C19" s="25">
         <v>1</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="29">
         <v>6.34343069748825</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="27">
+        <v>0</v>
+      </c>
+      <c r="F19" s="27">
+        <v>20</v>
+      </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="13"/>
-      <c r="P19" s="27"/>
+      <c r="P19" s="29"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="13"/>
-      <c r="V19" s="27"/>
+      <c r="V19" s="29"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
@@ -2186,7 +2217,7 @@
       <c r="C20" s="25">
         <v>0</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="29">
         <v>0</v>
       </c>
       <c r="E20" s="14"/>
@@ -2194,19 +2225,19 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="27"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="27"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="13"/>
-      <c r="V20" s="27"/>
+      <c r="V20" s="29"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
@@ -2219,27 +2250,31 @@
       <c r="C21" s="25">
         <v>1</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="29">
         <v>2.02933193450798</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="F21" s="27">
+        <v>5</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="27"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="27"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="13"/>
-      <c r="V21" s="27"/>
+      <c r="V21" s="29"/>
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
@@ -2252,34 +2287,38 @@
       <c r="C22" s="25">
         <v>1</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="29">
         <v>120.898484770801</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="27">
+        <v>25</v>
+      </c>
+      <c r="F22" s="27">
+        <v>200</v>
+      </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="27"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="13"/>
-      <c r="P22" s="27"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="13"/>
-      <c r="V22" s="27"/>
+      <c r="V22" s="29"/>
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" t="s" s="29">
+      <c r="B23" t="s" s="31">
         <v>24</v>
       </c>
       <c r="C23" s="14"/>
@@ -2287,19 +2326,19 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="30"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="30"/>
+      <c r="N23" s="32"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
-      <c r="T23" s="30"/>
+      <c r="T23" s="32"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
@@ -2314,27 +2353,31 @@
       <c r="C24" s="25">
         <v>1</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="29">
         <v>7.68582601138213</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27">
+        <v>20</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="27"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="27"/>
+      <c r="P24" s="29"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
       <c r="U24" s="13"/>
-      <c r="V24" s="27"/>
+      <c r="V24" s="29"/>
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
@@ -2347,27 +2390,31 @@
       <c r="C25" s="25">
         <v>1</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="29">
         <v>1.63173409195997</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="27">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="F25" s="27">
+        <v>2.942</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="27"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="27"/>
+      <c r="P25" s="29"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="13"/>
-      <c r="V25" s="27"/>
+      <c r="V25" s="29"/>
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
@@ -2380,27 +2427,31 @@
       <c r="C26" s="25">
         <v>1</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="29">
         <v>8.703281898992151</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="27">
+        <v>8.239000000000001</v>
+      </c>
+      <c r="F26" s="27">
+        <v>10.239</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="27"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="27"/>
+      <c r="P26" s="29"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="13"/>
-      <c r="V26" s="27"/>
+      <c r="V26" s="29"/>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
@@ -2413,34 +2464,38 @@
       <c r="C27" s="25">
         <v>1</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="29">
         <v>108.951397874437</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="27">
+        <v>98</v>
+      </c>
+      <c r="F27" s="27">
+        <v>115</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="27"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="13"/>
-      <c r="P27" s="27"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="13"/>
-      <c r="V27" s="27"/>
+      <c r="V27" s="29"/>
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="17"/>
-      <c r="B28" t="s" s="29">
+      <c r="B28" t="s" s="31">
         <v>25</v>
       </c>
       <c r="C28" s="14"/>
@@ -2448,19 +2503,19 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="30"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="30"/>
+      <c r="N28" s="32"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
-      <c r="T28" s="30"/>
+      <c r="T28" s="32"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
@@ -2475,27 +2530,31 @@
       <c r="C29" s="25">
         <v>1</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="29">
         <v>0.6168457303898019</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="27">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <v>10</v>
+      </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="27"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="13"/>
-      <c r="P29" s="27"/>
+      <c r="P29" s="29"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="13"/>
-      <c r="V29" s="27"/>
+      <c r="V29" s="29"/>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
@@ -2508,7 +2567,7 @@
       <c r="C30" s="25">
         <v>0</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="29">
         <v>0</v>
       </c>
       <c r="E30" s="14"/>
@@ -2516,19 +2575,19 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="27"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="13"/>
-      <c r="P30" s="27"/>
+      <c r="P30" s="29"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="27"/>
+      <c r="V30" s="29"/>
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
@@ -2541,27 +2600,31 @@
       <c r="C31" s="25">
         <v>1</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="29">
         <v>6.44681479137209</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="27">
+        <v>5.349</v>
+      </c>
+      <c r="F31" s="27">
+        <v>7.349</v>
+      </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="27"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="13"/>
-      <c r="P31" s="27"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
       <c r="U31" s="13"/>
-      <c r="V31" s="27"/>
+      <c r="V31" s="29"/>
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
@@ -2574,34 +2637,38 @@
       <c r="C32" s="25">
         <v>1</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="29">
         <v>49.7044554067015</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="E32" s="27">
+        <v>30</v>
+      </c>
+      <c r="F32" s="27">
+        <v>70</v>
+      </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="27"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="13"/>
-      <c r="P32" s="27"/>
+      <c r="P32" s="29"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="13"/>
-      <c r="V32" s="27"/>
+      <c r="V32" s="29"/>
       <c r="W32" s="14"/>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" t="s" s="29">
+      <c r="B33" t="s" s="31">
         <v>26</v>
       </c>
       <c r="C33" s="14"/>
@@ -2609,19 +2676,19 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="30"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
-      <c r="N33" s="30"/>
+      <c r="N33" s="32"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
-      <c r="T33" s="30"/>
+      <c r="T33" s="32"/>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
@@ -2636,27 +2703,31 @@
       <c r="C34" s="25">
         <v>1</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="29">
         <v>2.61633067085726</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="E34" s="27">
+        <v>0</v>
+      </c>
+      <c r="F34" s="27">
+        <v>7</v>
+      </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="27"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
       <c r="O34" s="13"/>
-      <c r="P34" s="27"/>
+      <c r="P34" s="29"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="U34" s="13"/>
-      <c r="V34" s="27"/>
+      <c r="V34" s="29"/>
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
@@ -2669,27 +2740,31 @@
       <c r="C35" s="25">
         <v>1</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="29">
         <v>14.262763002099</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="E35" s="27">
+        <v>4</v>
+      </c>
+      <c r="F35" s="27">
+        <v>45</v>
+      </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="27"/>
+      <c r="J35" s="29"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="27"/>
+      <c r="P35" s="29"/>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
       <c r="U35" s="13"/>
-      <c r="V35" s="27"/>
+      <c r="V35" s="29"/>
       <c r="W35" s="14"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
@@ -2702,27 +2777,31 @@
       <c r="C36" s="25">
         <v>1</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="29">
         <v>4.36392054522942</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="E36" s="27">
+        <v>0</v>
+      </c>
+      <c r="F36" s="27">
+        <v>7</v>
+      </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="27"/>
+      <c r="J36" s="29"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
       <c r="O36" s="13"/>
-      <c r="P36" s="27"/>
+      <c r="P36" s="29"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="13"/>
-      <c r="V36" s="27"/>
+      <c r="V36" s="29"/>
       <c r="W36" s="14"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
@@ -2735,27 +2814,31 @@
       <c r="C37" s="25">
         <v>1</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="29">
         <v>15.3046345180781</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="E37" s="27">
+        <v>4</v>
+      </c>
+      <c r="F37" s="27">
+        <v>45</v>
+      </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="27"/>
+      <c r="J37" s="29"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
       <c r="O37" s="13"/>
-      <c r="P37" s="27"/>
+      <c r="P37" s="29"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="13"/>
-      <c r="V37" s="27"/>
+      <c r="V37" s="29"/>
       <c r="W37" s="14"/>
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
@@ -2768,27 +2851,31 @@
       <c r="C38" s="25">
         <v>1</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="29">
         <v>2.62864421708659</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="E38" s="27">
+        <v>0</v>
+      </c>
+      <c r="F38" s="27">
+        <v>7</v>
+      </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="27"/>
+      <c r="J38" s="29"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
       <c r="O38" s="13"/>
-      <c r="P38" s="27"/>
+      <c r="P38" s="29"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
       <c r="U38" s="13"/>
-      <c r="V38" s="27"/>
+      <c r="V38" s="29"/>
       <c r="W38" s="14"/>
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
@@ -2801,27 +2888,31 @@
       <c r="C39" s="25">
         <v>1</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="29">
         <v>15.5119810191375</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="27">
+        <v>4</v>
+      </c>
+      <c r="F39" s="27">
+        <v>45</v>
+      </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="27"/>
+      <c r="J39" s="29"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
       <c r="O39" s="13"/>
-      <c r="P39" s="27"/>
+      <c r="P39" s="29"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
       <c r="U39" s="13"/>
-      <c r="V39" s="27"/>
+      <c r="V39" s="29"/>
       <c r="W39" s="14"/>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
@@ -2834,27 +2925,31 @@
       <c r="C40" s="25">
         <v>1</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="29">
         <v>3.62755762960637</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="E40" s="27">
+        <v>0</v>
+      </c>
+      <c r="F40" s="27">
+        <v>7</v>
+      </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="27"/>
+      <c r="J40" s="29"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
       <c r="N40" s="14"/>
       <c r="O40" s="13"/>
-      <c r="P40" s="27"/>
+      <c r="P40" s="29"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
       <c r="U40" s="13"/>
-      <c r="V40" s="27"/>
+      <c r="V40" s="29"/>
       <c r="W40" s="14"/>
       <c r="X40" s="14"/>
       <c r="Y40" s="14"/>
@@ -2867,27 +2962,31 @@
       <c r="C41" s="25">
         <v>1</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="29">
         <v>17.0379251237891</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="E41" s="27">
+        <v>4</v>
+      </c>
+      <c r="F41" s="27">
+        <v>45</v>
+      </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="27"/>
+      <c r="J41" s="29"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
       <c r="N41" s="14"/>
       <c r="O41" s="13"/>
-      <c r="P41" s="27"/>
+      <c r="P41" s="29"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
       <c r="U41" s="13"/>
-      <c r="V41" s="27"/>
+      <c r="V41" s="29"/>
       <c r="W41" s="14"/>
       <c r="X41" s="14"/>
       <c r="Y41" s="14"/>
@@ -2900,27 +2999,31 @@
       <c r="C42" s="25">
         <v>1</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="29">
         <v>3.20908645297916</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="E42" s="27">
+        <v>0</v>
+      </c>
+      <c r="F42" s="27">
+        <v>7</v>
+      </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="27"/>
+      <c r="J42" s="29"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
       <c r="N42" s="14"/>
       <c r="O42" s="13"/>
-      <c r="P42" s="27"/>
+      <c r="P42" s="29"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
       <c r="U42" s="13"/>
-      <c r="V42" s="27"/>
+      <c r="V42" s="29"/>
       <c r="W42" s="14"/>
       <c r="X42" s="14"/>
       <c r="Y42" s="14"/>
@@ -2933,34 +3036,38 @@
       <c r="C43" s="25">
         <v>1</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="29">
         <v>213.706742988834</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="E43" s="27">
+        <v>4</v>
+      </c>
+      <c r="F43" s="27">
+        <v>400</v>
+      </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="27"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
       <c r="N43" s="14"/>
       <c r="O43" s="13"/>
-      <c r="P43" s="27"/>
+      <c r="P43" s="29"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
       <c r="U43" s="13"/>
-      <c r="V43" s="27"/>
+      <c r="V43" s="29"/>
       <c r="W43" s="14"/>
       <c r="X43" s="14"/>
       <c r="Y43" s="14"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="17"/>
-      <c r="B44" t="s" s="29">
+      <c r="B44" t="s" s="31">
         <v>37</v>
       </c>
       <c r="C44" s="14"/>
@@ -2968,19 +3075,19 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="30"/>
+      <c r="H44" s="32"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
-      <c r="N44" s="30"/>
+      <c r="N44" s="32"/>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
       <c r="S44" s="14"/>
-      <c r="T44" s="30"/>
+      <c r="T44" s="32"/>
       <c r="U44" s="14"/>
       <c r="V44" s="14"/>
       <c r="W44" s="14"/>
@@ -2995,27 +3102,31 @@
       <c r="C45" s="25">
         <v>1</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="29">
         <v>13.0823990066486</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="27">
+        <v>0</v>
+      </c>
+      <c r="F45" s="27">
+        <v>20</v>
+      </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="27"/>
+      <c r="J45" s="29"/>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
       <c r="O45" s="13"/>
-      <c r="P45" s="27"/>
+      <c r="P45" s="29"/>
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
       <c r="U45" s="13"/>
-      <c r="V45" s="27"/>
+      <c r="V45" s="29"/>
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
       <c r="Y45" s="14"/>
@@ -3028,7 +3139,7 @@
       <c r="C46" s="25">
         <v>0</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="29">
         <v>0</v>
       </c>
       <c r="E46" s="14"/>
@@ -3036,19 +3147,19 @@
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="13"/>
-      <c r="J46" s="27"/>
+      <c r="J46" s="29"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
       <c r="N46" s="14"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="27"/>
+      <c r="P46" s="29"/>
       <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
       <c r="S46" s="14"/>
       <c r="T46" s="14"/>
       <c r="U46" s="13"/>
-      <c r="V46" s="27"/>
+      <c r="V46" s="29"/>
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
       <c r="Y46" s="14"/>
@@ -3061,27 +3172,31 @@
       <c r="C47" s="25">
         <v>1</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="29">
         <v>3.37586876048486</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="E47" s="27">
+        <v>2.705</v>
+      </c>
+      <c r="F47" s="27">
+        <v>7</v>
+      </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="27"/>
+      <c r="J47" s="29"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
       <c r="N47" s="14"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="27"/>
+      <c r="P47" s="29"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
       <c r="T47" s="14"/>
       <c r="U47" s="13"/>
-      <c r="V47" s="27"/>
+      <c r="V47" s="29"/>
       <c r="W47" s="14"/>
       <c r="X47" s="14"/>
       <c r="Y47" s="14"/>
@@ -3094,34 +3209,38 @@
       <c r="C48" s="25">
         <v>1</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="29">
         <v>47.8321177507694</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="E48" s="27">
+        <v>4</v>
+      </c>
+      <c r="F48" s="27">
+        <v>400</v>
+      </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="13"/>
-      <c r="J48" s="27"/>
+      <c r="J48" s="29"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
       <c r="N48" s="14"/>
       <c r="O48" s="13"/>
-      <c r="P48" s="27"/>
+      <c r="P48" s="29"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
       <c r="U48" s="13"/>
-      <c r="V48" s="27"/>
+      <c r="V48" s="29"/>
       <c r="W48" s="14"/>
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="17"/>
-      <c r="B49" t="s" s="29">
+      <c r="B49" t="s" s="31">
         <v>38</v>
       </c>
       <c r="C49" s="14"/>
@@ -3129,19 +3248,19 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="30"/>
+      <c r="H49" s="32"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
-      <c r="N49" s="30"/>
+      <c r="N49" s="32"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
       <c r="S49" s="14"/>
-      <c r="T49" s="30"/>
+      <c r="T49" s="32"/>
       <c r="U49" s="14"/>
       <c r="V49" s="14"/>
       <c r="W49" s="14"/>
@@ -3156,7 +3275,7 @@
       <c r="C50" s="25">
         <v>1</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="29">
         <v>0.242901940374216</v>
       </c>
       <c r="E50" s="14"/>
@@ -3164,19 +3283,19 @@
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="27"/>
+      <c r="J50" s="29"/>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
       <c r="O50" s="13"/>
-      <c r="P50" s="27"/>
+      <c r="P50" s="29"/>
       <c r="Q50" s="14"/>
       <c r="R50" s="14"/>
       <c r="S50" s="14"/>
       <c r="T50" s="14"/>
       <c r="U50" s="13"/>
-      <c r="V50" s="27"/>
+      <c r="V50" s="29"/>
       <c r="W50" s="14"/>
       <c r="X50" s="14"/>
       <c r="Y50" s="14"/>
@@ -3189,7 +3308,7 @@
       <c r="C51" s="25">
         <v>1</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="29">
         <v>0.227777185479274</v>
       </c>
       <c r="E51" s="14"/>
@@ -3197,19 +3316,19 @@
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="27"/>
+      <c r="J51" s="29"/>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
       <c r="N51" s="14"/>
       <c r="O51" s="13"/>
-      <c r="P51" s="27"/>
+      <c r="P51" s="29"/>
       <c r="Q51" s="14"/>
       <c r="R51" s="14"/>
       <c r="S51" s="14"/>
       <c r="T51" s="14"/>
       <c r="U51" s="13"/>
-      <c r="V51" s="27"/>
+      <c r="V51" s="29"/>
       <c r="W51" s="14"/>
       <c r="X51" s="14"/>
       <c r="Y51" s="14"/>
@@ -3222,7 +3341,7 @@
       <c r="C52" s="25">
         <v>1</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="29">
         <v>0.204176497616241</v>
       </c>
       <c r="E52" s="14"/>
@@ -3230,19 +3349,19 @@
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="27"/>
+      <c r="J52" s="29"/>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
       <c r="O52" s="13"/>
-      <c r="P52" s="27"/>
+      <c r="P52" s="29"/>
       <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
       <c r="S52" s="14"/>
       <c r="T52" s="14"/>
       <c r="U52" s="13"/>
-      <c r="V52" s="27"/>
+      <c r="V52" s="29"/>
       <c r="W52" s="14"/>
       <c r="X52" s="14"/>
       <c r="Y52" s="14"/>
@@ -3255,7 +3374,7 @@
       <c r="C53" s="25">
         <v>1</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="29">
         <v>0.315266095602074</v>
       </c>
       <c r="E53" s="14"/>
@@ -3263,19 +3382,19 @@
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="27"/>
+      <c r="J53" s="29"/>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
       <c r="N53" s="14"/>
       <c r="O53" s="13"/>
-      <c r="P53" s="27"/>
+      <c r="P53" s="29"/>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
       <c r="S53" s="14"/>
       <c r="T53" s="14"/>
       <c r="U53" s="13"/>
-      <c r="V53" s="27"/>
+      <c r="V53" s="29"/>
       <c r="W53" s="14"/>
       <c r="X53" s="14"/>
       <c r="Y53" s="14"/>
@@ -3288,7 +3407,7 @@
       <c r="C54" s="25">
         <v>1</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="29">
         <v>0.0056210101860073</v>
       </c>
       <c r="E54" s="14"/>
@@ -3296,19 +3415,19 @@
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="27"/>
+      <c r="J54" s="29"/>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
       <c r="O54" s="13"/>
-      <c r="P54" s="27"/>
+      <c r="P54" s="29"/>
       <c r="Q54" s="14"/>
       <c r="R54" s="14"/>
       <c r="S54" s="14"/>
       <c r="T54" s="14"/>
       <c r="U54" s="13"/>
-      <c r="V54" s="27"/>
+      <c r="V54" s="29"/>
       <c r="W54" s="14"/>
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
@@ -3317,25 +3436,25 @@
       <c r="A55" s="17"/>
       <c r="B55" s="18"/>
       <c r="C55" s="13"/>
-      <c r="D55" s="27"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="27"/>
+      <c r="J55" s="29"/>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
       <c r="O55" s="13"/>
-      <c r="P55" s="27"/>
+      <c r="P55" s="29"/>
       <c r="Q55" s="14"/>
       <c r="R55" s="14"/>
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
       <c r="U55" s="13"/>
-      <c r="V55" s="27"/>
+      <c r="V55" s="29"/>
       <c r="W55" s="14"/>
       <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
